--- a/medicine/Psychotrope/Siroka_Melniska/Siroka_Melniska.xlsx
+++ b/medicine/Psychotrope/Siroka_Melniska/Siroka_Melniska.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Shiroka Melnishka, (bulgare : Широка мелнишка лоза / Šhiroka Melnišhka loza) est un cépage rouge bulgare[1]. 
+Shiroka Melnishka, (bulgare : Широка мелнишка лоза / Šhiroka Melnišhka loza) est un cépage rouge bulgare. 
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En bulgare, le nom du raisin signifie "vigne à feuilles larges de Melnik". En tant que cépage, Shiroka Melnishka a une affinité pour le chêne qui peut produire des notes de tabac prononcées. Les vins sont souvent comparés au Châteauneuf-du-Pape avec son profil d'épices et de puissance similaire[2]. 
-Le cépage est résistant aux maladies, sensible au gel, et à maturité tardive[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En bulgare, le nom du raisin signifie "vigne à feuilles larges de Melnik". En tant que cépage, Shiroka Melnishka a une affinité pour le chêne qui peut produire des notes de tabac prononcées. Les vins sont souvent comparés au Châteauneuf-du-Pape avec son profil d'épices et de puissance similaire. 
+Le cépage est résistant aux maladies, sensible au gel, et à maturité tardive. 
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le vin était un favori particulier du Premier ministre britannique Winston Churchill[4]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vin était un favori particulier du Premier ministre britannique Winston Churchill. 
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est planté principalement près de la frontière grecque.  Les producteurs notables de vin de la variété sont Abdyika Vineyard, Villa Melnik, Damianitza, Logodaj et Sintica.
 </t>
@@ -606,7 +624,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Shiroka Melnishka est souvent appelé Melnik (Мелник, distinct des autres variétés nommées d'après la ville) ou Melnik à larges feuilles. 
 </t>
